--- a/season-data/cleaning/subsets/neutral games.xlsx
+++ b/season-data/cleaning/subsets/neutral games.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2007-8" sheetId="1" r:id="rId1"/>
-    <sheet name="2008-9" sheetId="2" r:id="rId2"/>
+    <sheet name="2007-08" sheetId="1" r:id="rId1"/>
+    <sheet name="2008-09" sheetId="2" r:id="rId2"/>
     <sheet name="2009-10" sheetId="3" r:id="rId3"/>
     <sheet name="2010-11" sheetId="4" r:id="rId4"/>
     <sheet name="2011-12" sheetId="5" r:id="rId5"/>
